--- a/Tabela/Copacabana/Copacabana-5.xlsx
+++ b/Tabela/Copacabana/Copacabana-5.xlsx
@@ -14,363 +14,372 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+  <si>
+    <t>Conforto e Design na melhor localização de Botafogo.</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>na planta</t>
-  </si>
-  <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 2.100.000</t>
-  </si>
-  <si>
-    <t>R$ 1.395.000</t>
-  </si>
-  <si>
-    <t>R$ 1.890.000</t>
+    <t>R$ 550.000</t>
   </si>
   <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 280.000</t>
-  </si>
-  <si>
-    <t>R$ 350.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 470.000</t>
-  </si>
-  <si>
-    <t>R$ 1.700.000</t>
-  </si>
-  <si>
-    <t>Sob consulta</t>
-  </si>
-  <si>
-    <t>R$ 400.000</t>
-  </si>
-  <si>
-    <t>R$ 2.500.000</t>
-  </si>
-  <si>
     <t>R$ 950.000</t>
   </si>
   <si>
-    <t>condomínio R$ 1.777 IPTU R$ 5.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.645 IPTU R$ 4.300</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.750</t>
-  </si>
-  <si>
-    <t>R$ 740.000</t>
-  </si>
-  <si>
-    <t>R$ 515.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 850</t>
-  </si>
-  <si>
-    <t>R$ 649.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 450 IPTU R$ 780</t>
+    <t>R$ 600.000</t>
+  </si>
+  <si>
+    <t>R$ 365.000</t>
+  </si>
+  <si>
+    <t>R$ 870.000</t>
+  </si>
+  <si>
+    <t>R$ 1.590.000</t>
+  </si>
+  <si>
+    <t>Residencial exclusivo na melhor localização de Botafogo, com charme, tranquilidade e muitas árvores.</t>
+  </si>
+  <si>
+    <t>R$ 650.000</t>
+  </si>
+  <si>
+    <t>R$ 8.000.000</t>
+  </si>
+  <si>
+    <t>R$ 3.300.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 600 IPTU R$ 1.120</t>
+  </si>
+  <si>
+    <t>R$ 377.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.530 IPTU R$ 491</t>
+  </si>
+  <si>
+    <t>condomínioR$ 600 IPTU R$ 880</t>
+  </si>
+  <si>
+    <t>R$ 10.000.000</t>
+  </si>
+  <si>
+    <t>R$ 590.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 350</t>
   </si>
   <si>
     <t>R$ 1.500.000</t>
   </si>
   <si>
-    <t>condomínio R$ 100 IPTU R$ 37</t>
-  </si>
-  <si>
-    <t>R$ 1.400.000</t>
-  </si>
-  <si>
-    <t>Apartamento localizado em Copacabana</t>
-  </si>
-  <si>
-    <t>R$ 555.000</t>
-  </si>
-  <si>
-    <t>R$ 698.000</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 630.000</t>
-  </si>
-  <si>
-    <t>R$ 1.850.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.420 IPTU R$ 3.029</t>
-  </si>
-  <si>
-    <t>O Matiz é um empreendimento privilegiado localizado em um dos melhores bairros do Rio de janeiro, o Jardim Botânico!</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 84</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 7.000</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Excelente apartamento amplo, Na Avenida Nossa Senhora de Copacabana. São 4 suítes, 2 varandas, churrasqueira e sauna. 11 andares e 2 vagas na escritura. unico apartamento com varan...</t>
-  </si>
-  <si>
-    <t>Com localização privilegiada, entre os Postos 4 e 5, próxima ao vasto comercio do bairro e ao mesmo tempo em uma rua de pouco movimento de veículos, arborizada e silenciosa, esse i...</t>
-  </si>
-  <si>
-    <t>Excelente Sala 4 Quartos no Posto 6 , Reformado , Piso Porcelanato, Sala 2 Ambientes , Varanda Fechada , 2 Suítes Todos os Quartos com Armários, Copa e Cozinha com Armários, 2 Quar...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 537 IPTU R$ 210</t>
-  </si>
-  <si>
-    <t>condomínio R$ 400 IPTU R$ 113</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis vende: Excelente, Sala Comercial Claro e Arejado Modernizado, Toda Clean. Entrega Imediata! Frente de Rua. Preço: O Melhor do MercadoPrivilégio Vende!</t>
-  </si>
-  <si>
-    <t>condomínio R$ 950 IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>Vendo conjugado reformado, em andar alto. Apartamento claro e arejado com vista livre, com visão do mar ao fundo. Sol da manhã. Localizado ao lado do metrô Arco Verde e a duas quad...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.210 IPTU R$ 5.939</t>
-  </si>
-  <si>
-    <t>Maravilhoso sala quarto com varanda! Ambiente muito bem divido e bastante arejado, Sala e quarto bem espaçoso, banheiro com box blindex e piso até ao teto, piso frio em todos os cô...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.100 IPTU R$ 415</t>
-  </si>
-  <si>
-    <t>Excelente apartamento perto de vias de acesso, com um amplo espaço, bastante arejado</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 240</t>
-  </si>
-  <si>
-    <t>condomínio R$ 845 IPTU R$ 234</t>
-  </si>
-  <si>
-    <t>condomínio R$ 330 IPTU R$ 235</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 168</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.573 IPTU R$ 5.107</t>
-  </si>
-  <si>
-    <t>Copacabana | Apartamento 3 quartos, sendo 1 suite, com armários.</t>
-  </si>
-  <si>
-    <t>Tem tudo e um pouco mais do que você e sua família precisam...</t>
-  </si>
-  <si>
-    <t>Imóvel com exclusividade, em prédio com portaria 24h, consumo de água e gás incluso no valor do condomínio, 2 elevadores e 6 apartamentos por andar.</t>
-  </si>
-  <si>
-    <t>Cobertura triplex, composta por três quartos suítes, dois lavabos, banheiro social com banheira e blindex. Terraço descoberto, dependências completas. 4887d</t>
+    <t>R$ 1.100.000</t>
+  </si>
+  <si>
+    <t>R$ 1.300.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.088 IPTU R$ 2.289</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.600 IPTU R$ 5.924</t>
+  </si>
+  <si>
+    <t>R$ 2.499.000</t>
+  </si>
+  <si>
+    <t>R$ 1.650.000</t>
+  </si>
+  <si>
+    <t>R$ 527.000</t>
+  </si>
+  <si>
+    <t>R$ 475.000</t>
+  </si>
+  <si>
+    <t>R$ 399.000</t>
+  </si>
+  <si>
+    <t>Localizado no t...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 850 IPTU R$ 2.698</t>
+  </si>
+  <si>
+    <t>condomínioR$ 4.500 IPTU R$ 18.111</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.000 IPTU R$ 1.096</t>
+  </si>
+  <si>
+    <t>APARTAMENTO DE FRENTE, 1° ANDAR, COMPOSTO POR SALA AMPLA DIVIDIDA EM 2 AMBIENTES, COZINHA COM ARMÁRIOS E 1 SUÍTE.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 560 IPTU R$ 200</t>
+  </si>
+  <si>
+    <t>Bem no coração de Copacabana, a uma quadra da praia e Avenida Atlântica.</t>
+  </si>
+  <si>
+    <t>QUADRA: ENTRE RAUL POMPÉIA E AV N S DE COPACABANAPOSIÇÃO: FUNDOSSOL: TARDEÁREA TOTAL: 80 MTSÁREA ÚTIL: 80 MTS9 ANDARTOTAL DE ANDARES: 10METRÔ À 400 MPORTARIA 24HELEVADOR: SIMVAGA:...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 3.500 IPTU R$ 4.500</t>
+  </si>
+  <si>
+    <t>condomínioR$ 561 IPTU R$ 110</t>
+  </si>
+  <si>
+    <t>Vendo excelente conjugado toda reformada com 1 ano de reforma elétrica nova porcelanato,pintura, gesso,armário embutidos. Fica no imóvel forno nunca usado Electrolux, fogão, e micr...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.300 IPTU R$ 540</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.400 IPTU R$ 400</t>
+  </si>
+  <si>
+    <t>condomínioR$ 797 IPTU R$ 519</t>
+  </si>
+  <si>
+    <t>Apartamento excelente com sacada em Copacabana! Sala ampla em 3 ambientes, 3 quartos sendo 1 suíte, banheiro social, cozinha, área de serviço e dependência completa de empregada. P...</t>
+  </si>
+  <si>
+    <t>Copacabana 04 Quartos Vistão Mar 193 m2 01 vaga</t>
+  </si>
+  <si>
+    <t>condomínioR$ 3.000 IPTU R$ 5.838</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.350 IPTU R$ 4.100</t>
+  </si>
+  <si>
+    <t>condomínioR$ 700 IPTU R$ 1.400</t>
+  </si>
+  <si>
+    <t>condomínioR$ 450 IPTU R$ 170</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.750 IPTU R$ 340</t>
+  </si>
+  <si>
+    <t>condomínioR$ 445 IPTU R$ 77</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>Excelente oportunidade em Copacabana!!</t>
+  </si>
+  <si>
+    <t>Apto com vista panorâmica para o mar (180 graus) com 363 m2 e 4 suites sendo 1 master e salão em 4 ambientes grandes com lavabo e banheiro social . Cozinha planejada com copa e dep...</t>
+  </si>
+  <si>
+    <t>Cobertura reformada na rua Barão de Ipanema em Copacabana com 213m², contendo sala de estar, varanda aberta, sala de TV, home theater, sala de jantar, lavabo. Na parte íntima do im...</t>
+  </si>
+  <si>
+    <t>LOCALIZADO NA ALTURA DO POSTO 6 ENTRE COPACABANA E IPANEMA, PE...</t>
+  </si>
+  <si>
+    <t>Charmoso apartamento Sala/Quarto reformado, silencioso, piso em porcelanato, cozinha americana com armários embutidos, quarto com armário embutido, espaçoso e bem iluminado. Banhei...</t>
+  </si>
+  <si>
+    <t>Cobertura na orla de Copacabana, Posto 6. Triplex, reformada por arquiteto conceituado, frontal mar, composta por:</t>
+  </si>
+  <si>
+    <t>Oportunidade - Excelente Loft localizado na Rua Aires Saldanha, esquina com a Rua Miguel Lemos, dividido em sala, quarto, cozinha e banheiro.</t>
+  </si>
+  <si>
+    <t>O apartamento está localizado no bairro Copacabana tem 150 metros quadrados com 3 quartos e 1 banheiroElevador que garante o transporte das suas malas e compras.</t>
+  </si>
+  <si>
+    <t>Copacabana - Excelente apartamento de 3 quartos sendo 1 suíte mais dependência de empregada com banheiro no Bairro mais tradicional do Rio de Janeiro, excelente localização, 140M²,...</t>
+  </si>
+  <si>
+    <t>(Exclusividade Carla) Apartamento com 3 quartos à venda, 150 m² por R$ 1.300.000 - Copacabana - Rio de Janeiro/RJ.</t>
+  </si>
+  <si>
+    <t>Copacabana Posto 5 - 193 m2 com amplo 4 quartos dependência completa possibilidade de fazer suíte localização privilegiada vistão...</t>
+  </si>
+  <si>
+    <t>Cobertura duplex localizada na terceira quadra da praia medindo 350 metros quadrados composta por salão para 2 ambientes sala de almoço e sala de jantar 3 quartos sendo 1 suite com...</t>
+  </si>
+  <si>
+    <t>Exclusividade!! Oportunidade!! Excelente apto, rua residencial, predio conceituado e familiar, excelente planta, super reformado, material de 1ª, com sala ampla para 2 ambientes, 3...</t>
+  </si>
+  <si>
+    <t>Apartamento conservadíssimo, amplo e aconchegante, pertinho de tudo, com janelões, bem arejado e ventilado, são 2 quartos e 1 suite repleto de armários, uma ampla sala privativa co...</t>
+  </si>
+  <si>
+    <t>Maravilhoso conjugadao diferenciado, reformado com boa varanda ( raridade)em rua transversal no posto 4. E de frente claro e arejado, com uma vista agradável para o verde. Ficam to...</t>
+  </si>
+  <si>
+    <t>Excelente planta, localizado a 1 quadra da praia. Sendo 3 quartos, sala em dois ambientes, banheiro social, boa cozinha, dependências completas. Apartamento de fundos, sem barulho...</t>
+  </si>
+  <si>
+    <t>COPACABANA – RUA MINISTRO VIVEIROS DE CASTRO – OPORTUNIDADE</t>
+  </si>
+  <si>
+    <t>Rua Conde de Irajá, Botafogo</t>
+  </si>
+  <si>
+    <t>Apartamento na Rua Dias da Rocha, entre Avenida Nossa Senhora de Copacabana e Barata Ribeiro, perto...</t>
+  </si>
+  <si>
+    <t>Rua Sá Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>1º piso: salão com vista mar, sala de jantar, lavabo, copa co...</t>
+  </si>
+  <si>
+    <t>Apartamento totalmente reformado, m...</t>
+  </si>
+  <si>
+    <t>Rua Barata Ribeiro, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>150 - 270 m²</t>
+  </si>
+  <si>
+    <t>Apartamento à venda na Rua Ronald de Carvalho, esquina com a Barata Ribeiro, há 300m da praia e do metrô!</t>
   </si>
   <si>
     <t>Avenida Atlântica, Copacabana</t>
   </si>
   <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Apartamento no bairro Copacabana, Excelente Localização. O imóvel tem 74 metros quadrados mais uma Varanda super charmosa. O apartamento está todo reformado com fino acabamento, ar...</t>
-  </si>
-  <si>
-    <t>EXCELENTE E AMPLO APARTAMENTO À VENDA NA RAUL POMPÉIA ESQUINA COM RAINHA ELIZABETH. REFORMADO. ARMÁRIOS. PÉ DIREITO ALTO. VISTA LIVRE. SILENCIOSO, CLARO E AREJADO. PRÓXIMO AS PRAIA...</t>
-  </si>
-  <si>
-    <t>Copacabana posto 5, apartamento com uma sala e mais 2 quartos com armários, banheiro social e um banheiro de serviço, a sala e os quartos com vista para rua e lateral praia , cozin...</t>
-  </si>
-  <si>
-    <t>Apartamento localizado na Rua Pompeu Loureiro, com quatro (04) quartos, três (03) banheiros, uma (01) cozinha grande, boa área de serviço, dois (02) espaços para dispensa, uma sala...</t>
-  </si>
-  <si>
-    <t>ASSISTA AO VÍDEO DA VISITA GUIADA E NARRADA EM DETALHES!</t>
-  </si>
-  <si>
-    <t>Apartamento composto por: quarto, sala, cozinha e b...</t>
-  </si>
-  <si>
-    <t>Amplo apartamento de frente, excelente localização, ventilado, claro, com armários planejados embutidos na cozinha e na suíte. Sala em 2 ambientes e vista livre. 2 dormitórios (sen...</t>
-  </si>
-  <si>
-    <t>Apartamento oitavo andar, possui 84 metros quadrados com sala grande, 2 quartos, original 3, sendo 1 suíte, banheiro social, cozinha, área de serviço e dependência completa. Bem il...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis vende excelente sala comercial no melhor ponto de Copacabana de frente, próximo estação do metrô Siqueira Campos, farto transporte público e comércio.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento sala e quarto em ótima localização, todo reformado, com 53 M2, banheiro social com blindex, cozinha com armários, dependências completas, andar alto, sol da m...</t>
-  </si>
-  <si>
-    <t>O apartamento está localizado no bairro Copacabana, na quadra da praia e tem 173 metros quadrados. Rua fartamente arborizada. Próximo ao metrô Arcoverde, andar alto, abundante ofer...</t>
-  </si>
-  <si>
-    <t>Lindo apartamento em Copacabana c/ Vista deslumbrante do mar tanto da sala, quanto dos quartos, sol da manhã, in...</t>
-  </si>
-  <si>
-    <t>Conjugadão com 32m no iptu,...</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
     <t>Copacabana, Rio de Janeiro</t>
   </si>
   <si>
-    <t>Rua Leopoldo Miguez, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Praça Vereador Rocha Leão, Copacabana</t>
-  </si>
-  <si>
-    <t>Os valo...</t>
-  </si>
-  <si>
-    <t>Rua Professor Saldanha, Jardim Botânico</t>
-  </si>
-  <si>
-    <t>Rua Souza Lima, Copacabana</t>
+    <t>Avenida Rainha Elizabeth da Bélgica, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Barão de Ipanema, Copacabana</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>30 m²</t>
+  </si>
+  <si>
+    <t>Rua Duvivier, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua República do Peru, Copacabana</t>
+  </si>
+  <si>
+    <t>A Imobiliária WMartins vende ótimo apartamento composto de...</t>
+  </si>
+  <si>
+    <t>92 m²</t>
+  </si>
+  <si>
+    <t>Rua Almirante Gonçalves, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Figueiredo Magalhães, Copacabana</t>
+  </si>
+  <si>
+    <t>Excelente apartamento conjugado, frente, claro, arejado, com área total de 25 metros, composto por sala conjugad...</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>363 m²</t>
+  </si>
+  <si>
+    <t>213 m²</t>
+  </si>
+  <si>
+    <t>42 m²</t>
+  </si>
+  <si>
+    <t>33 m²</t>
+  </si>
+  <si>
+    <t>Rua Raimundo Correia, Copacabana</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Rua Aires Saldanha, Copacabana</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>220 m²</t>
+    <t>150 m²</t>
   </si>
   <si>
     <t>140 m²</t>
   </si>
   <si>
-    <t>202 m²</t>
-  </si>
-  <si>
-    <t>Rua Tonelero, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Raul Pompéia, Copacabana</t>
-  </si>
-  <si>
-    <t>28 m²</t>
-  </si>
-  <si>
-    <t>Rua Almirante Gonçalves, Copacabana</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>193 m²</t>
+  </si>
+  <si>
+    <t>350 m²</t>
+  </si>
+  <si>
+    <t>133 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>45 m²</t>
+  </si>
+  <si>
+    <t>134 m²</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>Este imóvel vai te...</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>145 m²</t>
+  </si>
+  <si>
+    <t>800 m²</t>
   </si>
   <si>
     <t>35 m²</t>
   </si>
   <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>45 m²</t>
-  </si>
-  <si>
-    <t>APARTAMENTO DIFERENCIADO COM AMPLA ÁREA EXTERNA PRIVATIVA REPLETA DE ÓTIMOS ARMÁRIOS EMBUTIDOS, GRANDE SALÃO PARA 2...</t>
-  </si>
-  <si>
-    <t>Rua Duvivier, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Figueiredo Magalhães, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Aires Saldanha, Copacabana</t>
-  </si>
-  <si>
-    <t>55 - 136 m²</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>74 m²</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>158 m²</t>
-  </si>
-  <si>
-    <t>50 m²</t>
-  </si>
-  <si>
-    <t>65 m²</t>
-  </si>
-  <si>
-    <t>84 m²</t>
-  </si>
-  <si>
-    <t>53 m²</t>
-  </si>
-  <si>
-    <t>173 m²</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
-    <t>32 m²</t>
+    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
+  </si>
+  <si>
+    <t>3 - 5</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>25 m²</t>
   </si>
   <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>180 m²</t>
+    <t>86 m²</t>
   </si>
 </sst>
 </file>
@@ -728,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -774,772 +783,814 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>101</v>
+      </c>
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>101</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
         <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
